--- a/Docs/BSides21 Project Summary.xlsx
+++ b/Docs/BSides21 Project Summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25704"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845BA2A7-454E-C04F-8AB1-911737CD4202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="40800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="40800" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="ConBadge BOM" sheetId="1" r:id="rId5"/>
     <sheet name="SAO BOM" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,6 +38,366 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Aragorn</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Bsides KC 2021</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date Due</t>
+  </si>
+  <si>
+    <t>Order Count</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Git Repositiory</t>
+  </si>
+  <si>
+    <t>Board Size (mm)</t>
+  </si>
+  <si>
+    <t>182.7x113.6</t>
+  </si>
+  <si>
+    <t>49.9x47.9</t>
+  </si>
+  <si>
+    <t>21.2x40.3</t>
+  </si>
+  <si>
+    <t>Variations</t>
+  </si>
+  <si>
+    <t>Badge</t>
+  </si>
+  <si>
+    <t>SAO-Part</t>
+  </si>
+  <si>
+    <t>Crown</t>
+  </si>
+  <si>
+    <t>Board Color</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Silk screen</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Board Shop</t>
+  </si>
+  <si>
+    <t>PCBWays</t>
+  </si>
+  <si>
+    <t>Trello Link</t>
+  </si>
+  <si>
+    <t>Main MCU</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Price Sheet</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Prototype Version</t>
+  </si>
+  <si>
+    <t>Protytpe Oked by Customer</t>
+  </si>
+  <si>
+    <t>BOM Complete (Y/N)</t>
+  </si>
+  <si>
+    <t>Code info</t>
+  </si>
+  <si>
+    <t>To-Do</t>
+  </si>
+  <si>
+    <t>Artwork Info</t>
+  </si>
+  <si>
+    <t>Customer Supplied</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>Badges On Hand</t>
+  </si>
+  <si>
+    <t>Order to PCBWay</t>
+  </si>
+  <si>
+    <t>Final Prototype Tested</t>
+  </si>
+  <si>
+    <t>Parts Ordered</t>
+  </si>
+  <si>
+    <t>Final Prototype Ordered</t>
+  </si>
+  <si>
+    <t>Design Prototype Ordered</t>
+  </si>
+  <si>
+    <t>POC Tested</t>
+  </si>
+  <si>
+    <t>Badge QTY</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total - Fully Assemble</t>
+  </si>
+  <si>
+    <t>Con Badge AP</t>
+  </si>
+  <si>
+    <t>SAO</t>
+  </si>
+  <si>
+    <t>SAO Special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumptive Material </t>
+  </si>
+  <si>
+    <t>Assembly Cost</t>
+  </si>
+  <si>
+    <t>Component Cost</t>
+  </si>
+  <si>
+    <t>Prototype Cost</t>
+  </si>
+  <si>
+    <t>Misc Fees</t>
+  </si>
+  <si>
+    <t>Shipping Costs</t>
+  </si>
+  <si>
+    <t>Shipping Cost</t>
+  </si>
+  <si>
+    <t>PCB Cost</t>
+  </si>
+  <si>
+    <t>DNP Cost</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>$ Per Badge</t>
+  </si>
+  <si>
+    <t>* - QTY Summary</t>
+  </si>
+  <si>
+    <t>Profit Table</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Budget Quote</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>Organizer</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Profit %</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Color Key</t>
+  </si>
+  <si>
+    <t>Yellow = Adjustable</t>
+  </si>
+  <si>
+    <t>White = Calculated</t>
+  </si>
+  <si>
+    <t>Orange/White = PCBWay Cost</t>
+  </si>
+  <si>
+    <t>Orange/Black = AP (Cost)</t>
+  </si>
+  <si>
+    <t>Bill of Materials</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manuf Part#</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>PCBWayCost</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>Total QTY</t>
+  </si>
+  <si>
+    <t>Badge Qty</t>
+  </si>
+  <si>
+    <t>Per Badge</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>PCB, Switch, Battery Holder + Assembly</t>
+  </si>
+  <si>
+    <t>PCBWAY</t>
+  </si>
+  <si>
+    <t>PCB Only</t>
+  </si>
+  <si>
+    <t>Participant SAO</t>
+  </si>
+  <si>
+    <t>Sponsor 1 SAO - Cerner</t>
+  </si>
+  <si>
+    <t>Sponsor 2 SAO - WireX</t>
+  </si>
+  <si>
+    <t>Sponsor 3 SAO - Sumo Logic</t>
+  </si>
+  <si>
+    <t>Organizer SAO</t>
+  </si>
+  <si>
+    <t>Speaker SAO</t>
+  </si>
+  <si>
+    <t>Vendor SAO</t>
+  </si>
+  <si>
+    <t>Radio SAO</t>
+  </si>
+  <si>
+    <t>DO NOT POPYULATE BOM</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>SAO Headers (Badge)</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>SAO Headers (SAO)</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
+    <t>Battery Holders</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>RM LED's (Red)</t>
+  </si>
+  <si>
+    <t>Digi</t>
+  </si>
+  <si>
+    <t>AntiStatic Bags</t>
+  </si>
+  <si>
+    <t>Prototyping Costs</t>
+  </si>
+  <si>
+    <t>ESP-8266 12F</t>
+  </si>
+  <si>
     <t>LED Yellow Clear 2 PL CC SMD (Reverse Mount)</t>
   </si>
   <si>
@@ -50,376 +413,16 @@
     <t>0.1µF ±10% 10V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
+    <t>battery Holders 2x AAA</t>
+  </si>
+  <si>
     <t>220碌F 6.3V Aluminum Electrolytic Capacitors Radial, Can - SMD 1000 Hrs @ 105掳C</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Manuf Part#</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Each</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>Per Badge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumptive Material </t>
-  </si>
-  <si>
-    <t>Assembly Cost</t>
-  </si>
-  <si>
-    <t>Component Cost</t>
-  </si>
-  <si>
-    <t>Prototype Cost</t>
-  </si>
-  <si>
-    <t>DNP Cost</t>
-  </si>
-  <si>
-    <t>SubTotal</t>
-  </si>
-  <si>
-    <t>DO NOT POPYULATE BOM</t>
-  </si>
-  <si>
-    <t>Bill of Materials</t>
+    <t>AAA Battery</t>
   </si>
   <si>
     <t>Amazon</t>
-  </si>
-  <si>
-    <t>AntiStatic Bags</t>
-  </si>
-  <si>
-    <t>PCB Cost</t>
-  </si>
-  <si>
-    <t>Con Badge AP</t>
-  </si>
-  <si>
-    <t>Color Key</t>
-  </si>
-  <si>
-    <t>Yellow = Adjustable</t>
-  </si>
-  <si>
-    <t>White = Calculated</t>
-  </si>
-  <si>
-    <t>Orange/White = PCBWay Cost</t>
-  </si>
-  <si>
-    <t>Orange/Black = AP (Cost)</t>
-  </si>
-  <si>
-    <t>Misc Fees</t>
-  </si>
-  <si>
-    <t>$ Per Badge</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Volunteer</t>
-  </si>
-  <si>
-    <t>Organizer</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Sponsor</t>
-  </si>
-  <si>
-    <t>Badge QTY</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>* - QTY Summary</t>
-  </si>
-  <si>
-    <t>Artwork Info</t>
-  </si>
-  <si>
-    <t>Code info</t>
-  </si>
-  <si>
-    <t>BOM Complete (Y/N)</t>
-  </si>
-  <si>
-    <t>Protytpe Oked by Customer</t>
-  </si>
-  <si>
-    <t>Prototype Version</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Price Sheet</t>
-  </si>
-  <si>
-    <t>Main MCU</t>
-  </si>
-  <si>
-    <t>Trello Link</t>
-  </si>
-  <si>
-    <t>PCBWays</t>
-  </si>
-  <si>
-    <t>Board Shop</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Silk screen</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Board Color</t>
-  </si>
-  <si>
-    <t>Order Count</t>
-  </si>
-  <si>
-    <t>Variations</t>
-  </si>
-  <si>
-    <t>Board Size (mm)</t>
-  </si>
-  <si>
-    <t>Git Repositiory</t>
-  </si>
-  <si>
-    <t>Date Due</t>
-  </si>
-  <si>
-    <t>Date Start</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Customer Supplied</t>
-  </si>
-  <si>
-    <t>To-Do</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Badges On Hand</t>
-  </si>
-  <si>
-    <t>Deliver</t>
-  </si>
-  <si>
-    <t>Order to PCBWay</t>
-  </si>
-  <si>
-    <t>Parts Ordered</t>
-  </si>
-  <si>
-    <t>Final Prototype Tested</t>
-  </si>
-  <si>
-    <t>Final Prototype Ordered</t>
-  </si>
-  <si>
-    <t>Design Prototype Ordered</t>
-  </si>
-  <si>
-    <t>POC Tested</t>
-  </si>
-  <si>
-    <t>ESP-8266 12F</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>Budget Quote</t>
-  </si>
-  <si>
-    <t>Profit %</t>
-  </si>
-  <si>
-    <t>Profit Table</t>
-  </si>
-  <si>
-    <t>Shipping Costs</t>
-  </si>
-  <si>
-    <t>Shipping Cost</t>
-  </si>
-  <si>
-    <t>battery Holders 2x AAA</t>
-  </si>
-  <si>
-    <t>AAA Battery</t>
-  </si>
-  <si>
-    <t>Village</t>
-  </si>
-  <si>
-    <t>PCBWayCost</t>
-  </si>
-  <si>
-    <t>Participant</t>
-  </si>
-  <si>
-    <t>182.7x113.6</t>
-  </si>
-  <si>
-    <t>Aragorn</t>
-  </si>
-  <si>
-    <t>Badge</t>
-  </si>
-  <si>
-    <t>SAO-Part</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>49.9x47.9</t>
-  </si>
-  <si>
-    <t>Bsides KC 2021</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Total - Fully Assemble</t>
-  </si>
-  <si>
-    <t>SAO</t>
-  </si>
-  <si>
-    <t>SAO Special</t>
-  </si>
-  <si>
-    <t>Crown</t>
-  </si>
-  <si>
-    <t>21.2x40.3</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>PCB, Switch, Battery Holder + Assembly</t>
-  </si>
-  <si>
-    <t>PCBWAY</t>
-  </si>
-  <si>
-    <t>Participant SAO</t>
-  </si>
-  <si>
-    <t>Organizer SAO</t>
-  </si>
-  <si>
-    <t>Speaker SAO</t>
-  </si>
-  <si>
-    <t>Vendor SAO</t>
-  </si>
-  <si>
-    <t>Radio SAO</t>
-  </si>
-  <si>
-    <t>PCB Only</t>
-  </si>
-  <si>
-    <t>Sponsor 1 SAO - Cerner</t>
-  </si>
-  <si>
-    <t>Sponsor 2 SAO - WireX</t>
-  </si>
-  <si>
-    <t>Sponsor 3 SAO - Sumo Logic</t>
-  </si>
-  <si>
-    <t>SAO Headers (Badge)</t>
-  </si>
-  <si>
-    <t>SAO Headers (SAO)</t>
-  </si>
-  <si>
-    <t>Aliexpress</t>
-  </si>
-  <si>
-    <t>Switches</t>
-  </si>
-  <si>
-    <t>Battery Holders</t>
-  </si>
-  <si>
-    <t>Batteries</t>
-  </si>
-  <si>
-    <t>Alibaba</t>
-  </si>
-  <si>
-    <t>Prototyping Costs</t>
-  </si>
-  <si>
-    <t>RM LED's (Red)</t>
-  </si>
-  <si>
-    <t>Digi</t>
-  </si>
-  <si>
-    <t>Total QTY</t>
-  </si>
-  <si>
-    <t>Badge Qty</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2871,21 +2874,21 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15.95">
       <c r="B2" s="71" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D2" s="102"/>
       <c r="E2" s="102"/>
@@ -2895,12 +2898,12 @@
       <c r="I2" s="102"/>
       <c r="J2" s="102"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="70" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C3" s="103" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="D3" s="104"/>
       <c r="E3" s="104"/>
@@ -2910,9 +2913,9 @@
       <c r="I3" s="104"/>
       <c r="J3" s="105"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="70" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2"/>
@@ -2923,9 +2926,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="70" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C5" s="68">
         <v>44378</v>
@@ -2938,9 +2941,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="70" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C6" s="69">
         <v>44463</v>
@@ -2953,9 +2956,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="70" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C7" s="72">
         <v>1000</v>
@@ -2964,7 +2967,7 @@
         <v>400</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2972,9 +2975,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="70" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2985,18 +2988,18 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="70" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3004,18 +3007,18 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="70" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3023,18 +3026,18 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="70" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3042,18 +3045,18 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="70" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3061,18 +3064,18 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="70" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3080,9 +3083,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="70" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3093,18 +3096,18 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="70" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3112,15 +3115,15 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="70" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3129,9 +3132,9 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="70" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -3146,9 +3149,9 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="70" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3159,9 +3162,9 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="70" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3172,12 +3175,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -3187,7 +3190,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3198,7 +3201,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3209,7 +3212,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3220,7 +3223,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3231,18 +3234,18 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3268,62 +3271,62 @@
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C2" s="73"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C3" s="73"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C4" s="73"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="96" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C5" s="97"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="90" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C6" s="91"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="90" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C8" s="91"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="90" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="90" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C10" s="91"/>
     </row>
@@ -3340,222 +3343,222 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="15.95" thickBot="1"/>
+    <row r="2" spans="2:16" ht="15.95" thickBot="1">
       <c r="B2" s="108" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C2" s="109"/>
       <c r="E2" s="108" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F2" s="109"/>
       <c r="H2" s="108" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I2" s="109"/>
     </row>
-    <row r="3" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15.95" thickBot="1">
       <c r="B3" s="67" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C3" s="29">
         <v>1000</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F3" s="28">
         <v>50</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I3" s="28">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.95" thickBot="1">
       <c r="B4" s="35" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C4" s="58">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.95" thickBot="1"/>
+    <row r="6" spans="2:16" ht="15.95" thickBot="1">
       <c r="B6" s="106" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C6" s="107"/>
       <c r="E6" s="106" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F6" s="107"/>
       <c r="H6" s="106" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="I6" s="107"/>
     </row>
-    <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="15.95">
       <c r="B7" s="46" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C7" s="50"/>
       <c r="E7" s="46" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F7" s="50">
         <v>0</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I7" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="15.95">
       <c r="B8" s="47" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C8" s="51"/>
       <c r="E8" s="47" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F8" s="51">
         <v>0</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I8" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="15.95">
       <c r="B9" s="47" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C9" s="52">
         <f>'ConBadge BOM'!K12</f>
         <v>1000</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F9" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I9" s="52">
         <f>'SAO BOM'!J7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" ht="15.95">
       <c r="B10" s="47" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C10" s="63"/>
       <c r="E10" s="47" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F10" s="63">
         <v>80</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I10" s="63">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="15.95">
       <c r="B11" s="47" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C11" s="53"/>
       <c r="E11" s="47" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F11" s="53"/>
       <c r="H11" s="47" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I11" s="53"/>
     </row>
-    <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" ht="15.95">
       <c r="B12" s="47" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C12" s="53"/>
       <c r="E12" s="47" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F12" s="53"/>
       <c r="H12" s="47" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I12" s="53"/>
     </row>
-    <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" ht="15.95">
       <c r="B13" s="47" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C13" s="53"/>
       <c r="E13" s="47" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F13" s="53"/>
       <c r="H13" s="47" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I13" s="53">
         <f>I3*1</f>
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="17.100000000000001" thickBot="1">
       <c r="B14" s="48" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C14" s="54">
         <f>'ConBadge BOM'!K19</f>
         <v>0</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F14" s="54" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I14" s="54">
         <f>'SAO BOM'!J14</f>
@@ -3564,30 +3567,30 @@
       <c r="O14" s="86"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="17.100000000000001" thickBot="1">
       <c r="B15" s="49" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C15" s="55">
         <f>SUM(C7:C14)</f>
         <v>1000</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F15" s="55" t="e">
         <f>SUM(F7:F14)</f>
         <v>#REF!</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="I15" s="55">
         <f>SUM(I7:I14)</f>
         <v>226</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="L15" s="36" t="e">
         <f>C15+F15</f>
@@ -3597,27 +3600,27 @@
       <c r="O15" s="87"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15.95" thickBot="1">
       <c r="O16" s="86"/>
       <c r="P16" s="88"/>
     </row>
-    <row r="17" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="15.95" thickBot="1">
       <c r="B17" s="35" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C17" s="38">
         <f>C15 / (C3+C4)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F17" s="38" t="e">
         <f>F15/F3</f>
         <v>#REF!</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I17" s="38">
         <f>I15/I3</f>
@@ -3627,81 +3630,81 @@
       <c r="O17" s="86"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16">
       <c r="L18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="15.95" thickBot="1"/>
+    <row r="20" spans="2:16" ht="15.95" thickBot="1">
       <c r="B20" s="108" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C20" s="109"/>
       <c r="H20" s="110" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I20" s="111"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16">
       <c r="B21" s="64" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C21" s="62">
         <v>500</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I21" s="80"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16">
       <c r="B22" s="65" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C22" s="59">
         <v>35</v>
       </c>
       <c r="H22" s="84" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I22" s="81" t="e">
         <f>L15</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16">
       <c r="B23" s="65" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C23" s="59">
         <v>15</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I23" s="81" t="e">
         <f>I21-I22</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15.95" thickBot="1">
       <c r="B24" s="65" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C24" s="59">
         <v>30</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I24" s="82" t="e">
         <f>I23/I22</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16">
       <c r="B25" s="93" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C25" s="94">
         <v>15</v>
@@ -3709,44 +3712,44 @@
       <c r="H25" s="95"/>
       <c r="I25" s="88"/>
     </row>
-    <row r="26" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15.95" thickBot="1">
       <c r="B26" s="66" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C26" s="60">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="15.95" thickBot="1">
       <c r="C27" s="61">
         <f>SUM(C21:C26)</f>
         <v>635</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.95" thickBot="1"/>
+    <row r="30" spans="2:16" ht="15.95" thickBot="1">
       <c r="B30" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" s="33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15.95" thickBot="1">
       <c r="B34" s="34" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3773,24 +3776,24 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" customWidth="1"/>
-    <col min="3" max="3" width="75.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.95" thickBot="1"/>
+    <row r="2" spans="1:14" ht="15.95" thickBot="1">
       <c r="B2" s="112" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -3804,52 +3807,52 @@
       <c r="L2" s="113"/>
       <c r="M2" s="114"/>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.95" thickBot="1">
       <c r="B3" s="19" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="L3" s="42">
         <f>'Cost Summary'!C3</f>
         <v>1000</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -3868,13 +3871,13 @@
       </c>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -3893,13 +3896,13 @@
       </c>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3918,13 +3921,13 @@
       </c>
       <c r="M6" s="78"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3943,13 +3946,13 @@
       </c>
       <c r="M7" s="78"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3968,13 +3971,13 @@
       </c>
       <c r="M8" s="78"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3993,11 +3996,11 @@
       </c>
       <c r="M9" s="78"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="B10" s="12"/>
       <c r="C10" s="2"/>
       <c r="D10" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4009,13 +4012,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -4031,13 +4034,13 @@
       </c>
       <c r="M11" s="78"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4053,13 +4056,13 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4075,14 +4078,14 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.95" thickBot="1">
       <c r="A14" s="12"/>
       <c r="B14" s="92"/>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4099,13 +4102,13 @@
       <c r="M14" s="78"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.95" thickBot="1">
       <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -4117,7 +4120,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.95" thickBot="1">
       <c r="I16">
         <f>SUM(I4:I15)</f>
         <v>1690</v>
@@ -4131,13 +4134,13 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.95" thickBot="1">
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.95" thickBot="1">
       <c r="B18" s="112" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C18" s="113"/>
       <c r="D18" s="113"/>
@@ -4151,32 +4154,32 @@
       <c r="L18" s="113"/>
       <c r="M18" s="114"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="B19" s="23" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="25" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="L19" s="43">
         <f>L3</f>
@@ -4184,13 +4187,13 @@
       </c>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -4217,13 +4220,13 @@
         <v>0.12528</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="B21" s="92"/>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4250,13 +4253,13 @@
         <v>0.118995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="B22" s="92"/>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -4283,13 +4286,13 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="B23" s="92"/>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -4316,13 +4319,13 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="B24" s="92"/>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4349,13 +4352,13 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="B25" s="92"/>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4382,7 +4385,7 @@
         <v>0.28402499999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.95" thickBot="1">
       <c r="A26" s="12"/>
       <c r="B26" s="92"/>
       <c r="C26" s="2"/>
@@ -4407,13 +4410,13 @@
       </c>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.95" thickBot="1">
       <c r="B27" s="13"/>
       <c r="C27" s="9" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -4438,7 +4441,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.95" thickBot="1">
       <c r="K28" s="39">
         <f>SUM(K20:K27)</f>
         <v>1.833445</v>
@@ -4448,17 +4451,17 @@
         <v>1935.2199999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="B30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="B31" s="98">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:13">
       <c r="L36" s="3">
         <f>L16+L28</f>
         <v>6067.2199999999993</v>
@@ -4468,7 +4471,7 @@
         <v>7887.3859999999995</v>
       </c>
     </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:13">
       <c r="M37" s="100"/>
     </row>
   </sheetData>
@@ -4490,24 +4493,24 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" customWidth="1"/>
-    <col min="3" max="3" width="75.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.95" thickBot="1"/>
+    <row r="2" spans="1:13" ht="15.95" thickBot="1">
       <c r="B2" s="112" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -4520,46 +4523,46 @@
       <c r="K2" s="113"/>
       <c r="L2" s="114"/>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.95" thickBot="1">
       <c r="B3" s="19" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="K3" s="42">
         <f>'Cost Summary'!C3</f>
         <v>1000</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -4571,10 +4574,10 @@
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -4586,10 +4589,10 @@
       <c r="K5" s="5"/>
       <c r="L5" s="78"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4603,10 +4606,10 @@
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4618,10 +4621,10 @@
       <c r="K7" s="5"/>
       <c r="L7" s="78"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4633,10 +4636,10 @@
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -4650,11 +4653,11 @@
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.95" thickBot="1">
       <c r="A10" s="12"/>
       <c r="B10" s="92"/>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4667,10 +4670,10 @@
       <c r="L10" s="78"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.95" thickBot="1">
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4684,7 +4687,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.95" thickBot="1">
       <c r="I12">
         <f>SUM(I4:I11)</f>
         <v>0</v>
@@ -4698,13 +4701,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.95" thickBot="1">
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.95" thickBot="1">
       <c r="B14" s="112" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C14" s="113"/>
       <c r="D14" s="113"/>
@@ -4717,31 +4720,31 @@
       <c r="K14" s="113"/>
       <c r="L14" s="114"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="23" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="K15" s="43">
         <f>K3</f>
@@ -4749,13 +4752,13 @@
       </c>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -4766,11 +4769,11 @@
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.95" thickBot="1">
       <c r="A17" s="12"/>
       <c r="B17" s="92"/>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4783,10 +4786,10 @@
       <c r="L17" s="78"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.95" thickBot="1">
       <c r="B18" s="13"/>
       <c r="C18" s="9" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -4797,7 +4800,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.95" thickBot="1">
       <c r="J19" s="39">
         <f>SUM(J16:J18)</f>
         <v>0</v>
@@ -4826,17 +4829,17 @@
       <selection activeCell="C11" sqref="C11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="123.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="123.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15.95" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.95" thickBot="1">
       <c r="B2" s="112" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -4848,30 +4851,30 @@
       <c r="J2" s="113"/>
       <c r="K2" s="114"/>
     </row>
-    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15.95" thickBot="1">
       <c r="B3" s="19" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="J3" s="42">
         <f>'Cost Summary'!I3</f>
@@ -4879,7 +4882,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="12"/>
       <c r="C4" s="15"/>
       <c r="D4" s="2"/>
@@ -4891,7 +4894,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="79"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="12"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4903,7 +4906,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="15.95" thickBot="1">
       <c r="B6" s="13"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4915,7 +4918,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15.95" thickBot="1">
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>0</v>
@@ -4925,10 +4928,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15.95" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.95" thickBot="1">
       <c r="B9" s="112" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
@@ -4940,30 +4943,30 @@
       <c r="J9" s="113"/>
       <c r="K9" s="114"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="23" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="J10" s="43">
         <f>J3</f>
@@ -4971,7 +4974,7 @@
       </c>
       <c r="K10" s="26"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="15.95" thickBot="1">
       <c r="B11" s="12"/>
       <c r="C11" s="56"/>
       <c r="D11" s="9"/>
@@ -4983,7 +4986,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15.95" thickBot="1">
       <c r="B12" s="74"/>
       <c r="C12" s="56"/>
       <c r="D12" s="9"/>
@@ -4995,7 +4998,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="77"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="15.95" thickBot="1">
       <c r="B13" s="13"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -5007,7 +5010,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="15.95" thickBot="1">
       <c r="G14" s="1"/>
       <c r="I14" s="39">
         <f>SUM(I11:I13)</f>
